--- a/Output/SQL_Job_DS/FNC_SVC_AR_FCT_FA_SQLs.xlsx
+++ b/Output/SQL_Job_DS/FNC_SVC_AR_FCT_FA_SQLs.xlsx
@@ -763,7 +763,7 @@
 LEFT JOIN CCY 					ON CCY.CCY_ID = AR.DNMN_CCY_ID
 LEFT JOIN AR CARD_AR			ON CARD_AR.AR_ID = CARD.CARD_ID
 LEFT JOIN TMP_AR_X_AU AU		ON AU.AR_ID = CARD.AR_ID AND AU.AR_X_AU_TP_CODE = 'AR_X_DR_AU'
-LEFT JOIN CC_AR_SMY SMY			ON CARD.AR_ID = SMY.CC_AR_ID 	AND smy.MSR_PRD_ID = #pDate#
+LEFT JOIN CC_AR_SMY SMY			ON CARD.AR_ID = SMY.CC_AR_ID 	AND smy.MSR_PRD_ID = :pDate:
 LEFT JOIN EXT_XLS_MAP_NHOMNO_THE_TDY MAP ON SMY.NOD_PAST_DUE &lt; NVL(MAP.HIGH_VAL, SMY.NOD_PAST_DUE + 1)
 	AND SMY.NOD_PAST_DUE &gt;= NVL(MAP.LOW_VAL, SMY.NOD_PAST_DUE)
 	AND SMY.NOD_PAST_DUE &gt;= NVL(MAP.LOW_VAL, SMY.NOD_PAST_DUE)
@@ -812,7 +812,7 @@
 	,ORIG_CLS_BAL_MTD_LCY
 FROM FNC_SVC_AR_ANL_FCT_FA FCT
 LEFT JOIN AC_AR_DIM ON AC_AR_DIM.AC_AR_DIM_ID = FCT.AC_AR_DIM_ID
-WHERE FCT.CDR_DT_DIM_ID = to_number(to_char(to_date(#pDate#, 'yyyymmdd')-1, 'yyyymmdd'))
+WHERE FCT.CDR_DT_DIM_ID = to_number(to_char(to_date(:pDate:, 'yyyymmdd')-1, 'yyyymmdd'))
 AND FCT.SRO_DIM_ID = 7;</t>
         </is>
       </c>
@@ -966,8 +966,8 @@
 ,decode(CHG.MUD, 'OD', ABS(CLS_VAL_BAL_FCY), CLS_VAL_BAL_FCY) ORIG_CLS_BAL_FCY
 ,decode(CHG.MUD, 'OD', ABS(CLS_VAL_BAL_LCY), CLS_VAL_BAL_LCY) ORIG_CLS_BAL_LCY
 FROM TWT_FNC_SVC_AR_ANL_FCT_FA_CHG chg
-LEFT JOIN AR_DLQ_SMY DLQ ON ac_AR_ID = DLQ.AR_ID AND DLQ.MSR_PRD_ID = #pDate#
-LEFT JOIN TWT_AR_TVR_SMY_DAILY TVR ON ac_AR_ID = TVR.AR_ID AND TVR.MSR_PRD_ID = #pDate#
+LEFT JOIN AR_DLQ_SMY DLQ ON ac_AR_ID = DLQ.AR_ID AND DLQ.MSR_PRD_ID = :pDate:
+LEFT JOIN TWT_AR_TVR_SMY_DAILY TVR ON ac_AR_ID = TVR.AR_ID AND TVR.MSR_PRD_ID = :pDate:
 LEFT JOIN (SELECT ARF.AR_ID, ARF.EFF_DT, ARF.END_DT, CD.CL_CODE
 	FROM AR_FNC_ST ARF
 	LEFT JOIN CV CD ON CD.CL_ID = ARF.AR_FNC_ST_TP_ID
@@ -1000,9 +1000,9 @@
 LEFT JOIN (
 	SELECT AVY_SHD.AR_AVY_ID
 		,SUM(nvl(AVY_SHD.SHD_AMT, 0) - nvl(AVY_SHD.ACT_AMT, 0)) DUE_AMT 	FROM AR_AVY_SHD_ITM AVY_SHD
-	WHERE AVY_SHD.EFF_DT &lt;= #pDate#
-		AND AVY_SHD.END_DT &gt; #pDate#
-		AND AVY_SHD.EXPC_END_DT &lt;= #pDate#
+	WHERE AVY_SHD.EFF_DT &lt;= :pDate:
+		AND AVY_SHD.END_DT &gt; :pDate:
+		AND AVY_SHD.EXPC_END_DT &lt;= :pDate:
 		AND AVY_SHD.SHD_AMT &gt; AVY_SHD.ACT_AMT
 	GROUP BY AVY_SHD.AR_AVY_ID
 	) AVY_SHD ON AR_AVY.AR_AVY_ID = AVY_SHD.AR_AVY_ID
@@ -1036,20 +1036,20 @@
 			'CLT_VALT'
 			,'LMT_CTB'
 			)
-	WHERE RI_VAL.EFF_DT &lt;= #pDate#
-		AND RI_VAL.END_DT &gt; #pDate#
+	WHERE RI_VAL.EFF_DT &lt;= :pDate:
+		AND RI_VAL.END_DT &gt; :pDate:
 	GROUP BY RI_VAL.RI_ID
 	) RI_VAL ON RI_VAL.RI_ID = RI.RI_ID
 LEFT JOIN RI_X_UDF_RLTNP RI_X_UDF ON RI_X_UDF.RI_ID = RI.RI_ID
-	AND RI_X_UDF.EFF_DT &lt;= #pDate#
-	AND RI_X_UDF.END_DT &gt; #pDate#
+	AND RI_X_UDF.EFF_DT &lt;= :pDate:
+	AND RI_X_UDF.END_DT &gt; :pDate:
 LEFT JOIN (
 	SELECT RI_X_CL.*
 		,CV.CL_NM
 	FROM RI_X_CL_RLTNP RI_X_CL
 	JOIN CV ON RI_X_CL.CL_ID = CV.CL_ID
-		AND RI_X_CL.EFF_DT &lt;= #pDate#
-		AND RI_X_CL.END_DT &gt; #pDate#
+		AND RI_X_CL.EFF_DT &lt;= :pDate:
+		AND RI_X_CL.END_DT &gt; :pDate:
 	WHERE RI_X_CL.RI_X_CL_RLTNP_TP_ID = '1AD160750012C416E42B551CC5CA4A5F' 	) COLL_CGY ON COLL_CGY.RI_ID = RI.RI_ID
 LEFT JOIN AR_LC_ST LC_ST ON LC_ST.AR_ID = AR_X_RI.AR_ID
 	AND LC_ST.SRC_STM_ID = '85425375A0630AA9C05A16D7D3420345' 	AND LC_ST.AR_LC_ST_SCM_ID = '6B7D2ED561F31655BADF9F232E792DE2' 	AND LC_ST.EFF_DT &lt;= AC_AR.LAST_EFF_DT
@@ -1108,16 +1108,16 @@
 FROM TWT_FNC_SVC_AR_ANL_FCT_FA_CHG AC_AR
 LEFT JOIN AR_X_LMT_TP_RLTNP AR_X_LMT ON AC_AR.AC_AR_ID = AR_X_LMT.AR_ID
 LEFT JOIN AR_TVR_SMY TVR_SMY ON AC_AR.AC_AR_ID = TVR_SMY.AR_ID
-	AND TVR_SMY.MSR_PRD_ID = #pDate#
+	AND TVR_SMY.MSR_PRD_ID = :pDate:
 LEFT JOIN (
 	SELECT AR_X_AR.SBJ_AR_ID AR_ID
 		,CR_USG_SMY.CLS_AVL_AMT TOT_AVL_LMT_AMT
 	FROM AR_X_AR_RLTNP AR_X_AR
 	LEFT JOIN AR_CR_USG_SMY CR_USG_SMY ON AR_X_AR.OBJ_AR_ID = CR_USG_SMY.AR_ID
 	WHERE AR_X_AR.SRC_STM_ID = 'A859AEF31E787D7AAA50F314F87DE330'
-		AND CR_USG_SMY.MSR_PRD_ID = #pDate#
-		AND AR_X_AR.EFF_DT &lt;= #pDate#
-		AND AR_X_AR.END_DT &gt; #pDate#
+		AND CR_USG_SMY.MSR_PRD_ID = :pDate:
+		AND AR_X_AR.EFF_DT &lt;= :pDate:
+		AND AR_X_AR.END_DT &gt; :pDate:
 		AND AR_X_AR.AR_X_AR_RLTNP_TP_ID = 'E9BCF51A07832895CE3CAFED32695B4D'
 	) C ON AC_AR.AC_AR_ID = C.AR_ID
 WHERE AC_AR.MUD = 'OD'

--- a/Output/SQL_Job_DS/FNC_SVC_AR_FCT_FA_SQLs.xlsx
+++ b/Output/SQL_Job_DS/FNC_SVC_AR_FCT_FA_SQLs.xlsx
@@ -474,19 +474,19 @@
 	,MSEG_DIM.MSEG_DIM_ID					MSEG_DIM_ID
 	,T.CLS_BAL_FCY
 	,T.CLS_BAL_LCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'IW')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'IW')
 				THEN T.CLS_BAL_FCY
 		ELSE nvl(lst.CLS_BAL_WTD_FCY, 0) + T.CLS_BAL_FCY
 	END													CLS_BAL_WTD_FCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'IW')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'IW')
 				THEN T.CLS_BAL_LCY
 		ELSE nvl(lst.CLS_BAL_WTD_LCY, 0) + T.CLS_BAL_LCY
 	END 												CLS_BAL_WTD_LCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN T.CLS_BAL_FCY
 		ELSE nvl(lst.CLS_BAL_MTD_FCY, 0) + T.CLS_BAL_FCY
 	END 												CLS_BAL_MTD_FCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN T.CLS_BAL_LCY
 		ELSE nvl(lst.CLS_BAL_MTD_LCY, 0) + T.CLS_BAL_LCY
 	END 												CLS_BAL_MTD_LCY
@@ -494,23 +494,23 @@
 	,T.LQD_AMT_LCY
 	,T.DSBR_AMT_FCY
 	,T.DSBR_AMT_LCY
-		,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+		,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN T.DSBR_AMT_LCY
 		ELSE nvl(lst.DSBR_AMT_MTD_LCY, 0) + T.DSBR_AMT_LCY
 	END 									DSBR_AMT_MTD_LCY
 	,T.PREPYMT_AMT_FCY
 	,T.PREPYMT_AMT_LCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN T.PREPYMT_AMT_FCY
 		ELSE nvl(lst.PREPYMT_AMT_MTD_FCY, 0) + T.PREPYMT_AMT_FCY
 	END 												PREPYMT_AMT_MTD_FCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN T.PREPYMT_AMT_LCY
 		ELSE nvl(lst.PREPYMT_AMT_MTD_LCY, 0) + T.PREPYMT_AMT_LCY
 	END     											PREPYMT_AMT_MTD_LCY
 	,													T.PY_OFF_BFR_DUE_DT_F
 	,													T.INT_RATE
-	,#pdate#											CDR_DT_DIM_ID
+	,:pdate:											CDR_DT_DIM_ID
 	,decode(T.MUD, 'OD', 0, AC_AR_DIM.TERM_IN_MO)		TERM_IN_MO
 	,SRO_DIM.SRO_DIM_ID									SRO_DIM_ID
 	,T.PB_MISCODE_F
@@ -527,11 +527,11 @@
 	,OVRL_FNL.FNC_ST_DIM_ID								OVRL_FNL_FNC_ST_DIM_ID
 	,T.ORIG_CLS_BAL_FCY
 	,T.ORIG_CLS_BAL_LCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN T.ORIG_CLS_BAL_FCY
 		ELSE nvl(lst.ORIG_CLS_BAL_MTD_FCY, 0) + T.ORIG_CLS_BAL_FCY
 	END 												ORIG_CLS_BAL_MTD_FCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN T.ORIG_CLS_BAL_LCY
 		ELSE nvl(lst.ORIG_CLS_BAL_MTD_LCY, 0) + T.ORIG_CLS_BAL_LCY
 	END 												ORIG_CLS_BAL_MTD_LCY
@@ -555,50 +555,50 @@
 ,ORIG_OU.OU_DIM_ID ORIG_OU_DIM_ID
 ,CST_SEG_MINI_DIM.CST_SEG_MINI_DIM_ID
 FROM TWT_FNC_SVC_AR_ANL_FCT_FA T
-INNER JOIN AC_AR_DIM 					ON AC_AR_DIM.AC_AR_ID = T.AC_AR_ID AND AC_AR_DIM.EFF_DT &lt;= #pdate# AND AC_AR_DIM.END_DT &gt; #pdate#
-LEFT JOIN TWT_FCA_ANL_FCT_FA_LST_DY LST ON AC_AR_DIM.AC_AR_ID = LST.AC_AR_ID AND LST.CDR_DT_DIM_ID = to_number(to_char(to_date(#pdate#, 'yyyymmdd')-1, 'yyyymmdd'))
-LEFT JOIN FNC_SVC_AR_MINI_DIM FNC_SVC_MINI	ON FNC_SVC_MINI.FNC_SVC_AR_ID = T.AC_AR_ID AND FNC_SVC_MINI.EFF_DT &lt;= #pdate# AND FNC_SVC_MINI.END_DT &gt; #pdate#
+INNER JOIN AC_AR_DIM 					ON AC_AR_DIM.AC_AR_ID = T.AC_AR_ID AND AC_AR_DIM.EFF_DT &lt;= :pdate: AND AC_AR_DIM.END_DT &gt; :pdate:
+LEFT JOIN TWT_FCA_ANL_FCT_FA_LST_DY LST ON AC_AR_DIM.AC_AR_ID = LST.AC_AR_ID AND LST.CDR_DT_DIM_ID = to_number(to_char(to_date(:pdate:, 'yyyymmdd')-1, 'yyyymmdd'))
+LEFT JOIN FNC_SVC_AR_MINI_DIM FNC_SVC_MINI	ON FNC_SVC_MINI.FNC_SVC_AR_ID = T.AC_AR_ID AND FNC_SVC_MINI.EFF_DT &lt;= :pdate: AND FNC_SVC_MINI.END_DT &gt; :pdate:
 LEFT JOIN TWT_FNC_SVC_AR_FCT_FA_CST_PD PD_CST ON T.AC_AR_ID = PD_CST.AC_AR_ID LEFT JOIN TWT_PUB_AC_AR_INFO TB_IF ON TB_IF.AR_ID = T.AC_AR_ID
-LEFT JOIN AC_AR_MINI_DIM AC_AR_MINI ON AC_AR_MINI.EFF_DT&lt;=#pdate# AND AC_AR_MINI.END_DT&gt;#pdate#
+LEFT JOIN AC_AR_MINI_DIM AC_AR_MINI ON AC_AR_MINI.EFF_DT&lt;=:pdate: AND AC_AR_MINI.END_DT&gt;:pdate:
 	AND NVL(PD_CST.GL_FNC_ST_CODE, 'NULL') = AC_AR_MINI.AR_FNC_ST
 	AND NVL(PD_CST.CST_PD_FNC_ST_CODE, 'NULL') = AC_AR_MINI.CST_PD_FNC_ST_CODE
 	AND nvl(TB_IF.CST_INCM_F,'N') = AC_AR_MINI.CST_INCM_F
-LEFT JOIN CST_DIM 						ON CST_DIM.CST_ID = T.CST_ID AND CST_DIM.EFF_DT &lt;= #pdate# AND CST_DIM.END_DT &gt; #pdate#
-LEFT JOIN LOAN_PPS_DIM 					ON LOAN_PPS_DIM.PPS_CODE = T.LOAN_PPS_CODE AND LOAN_PPS_DIM.EFF_DT &lt;= #pdate# AND LOAN_PPS_DIM.END_DT &gt; #pdate# AND LOAN_PPS_DIM.PPS_TP = 'MUC DICH VAY'
-LEFT JOIN PD_DIM 						ON PD_DIM.PD_CODE = T.PD_CODE AND PD_DIM.EFF_DT &lt;= #pdate# AND PD_DIM.END_DT &gt; #pdate#
+LEFT JOIN CST_DIM 						ON CST_DIM.CST_ID = T.CST_ID AND CST_DIM.EFF_DT &lt;= :pdate: AND CST_DIM.END_DT &gt; :pdate:
+LEFT JOIN LOAN_PPS_DIM 					ON LOAN_PPS_DIM.PPS_CODE = T.LOAN_PPS_CODE AND LOAN_PPS_DIM.EFF_DT &lt;= :pdate: AND LOAN_PPS_DIM.END_DT &gt; :pdate: AND LOAN_PPS_DIM.PPS_TP = 'MUC DICH VAY'
+LEFT JOIN PD_DIM 						ON PD_DIM.PD_CODE = T.PD_CODE AND PD_DIM.EFF_DT &lt;= :pdate: AND PD_DIM.END_DT &gt; :pdate:
 										AND CASE WHEN T.MUD IN ('LN', 'OD') THEN 'FCC' ELSE 'SMV' END = SUBSTR(PD_DIM.SRC_STM_CODE, 1, INSTR(PD_DIM.SRC_STM_CODE, '.')-1)
-LEFT JOIN PD_DIM ORIG_PD 				ON ORIG_PD.PD_CODE = T.ORIG_PD_CODE AND ORIG_PD.EFF_DT &lt;= #pdate# AND ORIG_PD.END_DT &gt; #pdate#
+LEFT JOIN PD_DIM ORIG_PD 				ON ORIG_PD.PD_CODE = T.ORIG_PD_CODE AND ORIG_PD.EFF_DT &lt;= :pdate: AND ORIG_PD.END_DT &gt; :pdate:
 										AND CASE WHEN T.MUD IN ('LN', 'OD') THEN 'FCC' ELSE 'SMV' END = SUBSTR(ORIG_PD.SRC_STM_CODE, 1, INSTR(ORIG_PD.SRC_STM_CODE, '.')-1)
-LEFT JOIN EMPE_DIM RLTNP_OFCR 			ON RLTNP_OFCR.EMPE_ID = T.RLTNP_OFCR_ID AND RLTNP_OFCR.EFF_DT &lt;= #pdate# AND RLTNP_OFCR.END_DT &gt; #pdate#
-LEFT JOIN IDY_DIM 						ON IDY_DIM.IDY_SHRT_CODE = T.IDY_CODE AND IDY_DIM.EFF_DT &lt;= #pdate# AND IDY_DIM.END_DT &gt; #pdate# AND SUBSTR(IDY_DIM.IDY_CODE, 1, INSTR(IDY_DIM.IDY_CODE, '.')-1) = 'NGANH_NGHE_KINH_TE_SBV'
-LEFT JOIN LDGR_ACG_DIM 					ON LDGR_ACG_DIM.LDGR_ACG_ID = T.LDGR_ACG_ID AND LDGR_ACG_DIM.EFF_DT &lt;= #pdate# AND LDGR_ACG_DIM.END_DT &gt; #pdate#
+LEFT JOIN EMPE_DIM RLTNP_OFCR 			ON RLTNP_OFCR.EMPE_ID = T.RLTNP_OFCR_ID AND RLTNP_OFCR.EFF_DT &lt;= :pdate: AND RLTNP_OFCR.END_DT &gt; :pdate:
+LEFT JOIN IDY_DIM 						ON IDY_DIM.IDY_SHRT_CODE = T.IDY_CODE AND IDY_DIM.EFF_DT &lt;= :pdate: AND IDY_DIM.END_DT &gt; :pdate: AND SUBSTR(IDY_DIM.IDY_CODE, 1, INSTR(IDY_DIM.IDY_CODE, '.')-1) = 'NGANH_NGHE_KINH_TE_SBV'
+LEFT JOIN LDGR_ACG_DIM 					ON LDGR_ACG_DIM.LDGR_ACG_ID = T.LDGR_ACG_ID AND LDGR_ACG_DIM.EFF_DT &lt;= :pdate: AND LDGR_ACG_DIM.END_DT &gt; :pdate:
 LEFT JOIN GRP_DIM TERM_DIM				ON TERM_DIM.GRP_CODE = decode(T.MUD, 'OD', 'S', CASE WHEN AC_AR_DIM.TERM_IN_MO &lt;= 12 THEN 'S' WHEN AC_AR_DIM.TERM_IN_MO &lt;= 60 THEN 'M' ELSE 'L' END)
-										AND TERM_DIM.PRN_GRP_CODE = 'TERM_SEG_TP' AND TERM_DIM.EFF_DT &lt;= #pdate# AND TERM_DIM.END_DT &gt; #pdate#
-LEFT JOIN OU_DIM ADJ_OU 				ON ADJ_OU.CODE = T.ADJ_OU_CODE AND ADJ_OU.EFF_DT &lt;= #pdate# AND ADJ_OU.END_DT &gt; #pdate#
-LEFT JOIN OU_DIM OU						ON OU.CODE = T.OU_CODE AND OU.EFF_DT &lt;= #pdate# AND OU.END_DT &gt; #pdate#
-LEFT JOIN OU_DIM MID1_OU				ON MID1_OU.CODE = T.MIS1_OU_CODE AND MID1_OU.EFF_DT &lt;= #pdate# AND MID1_OU.END_DT &gt; #pdate#
-LEFT JOIN CCY_DIM ADJ_CCY 				ON ADJ_CCY.ALPB_CCY_CODE = T.ADJ_CCY_CODE AND ADJ_CCY.EFF_DT &lt;= #pdate# AND ADJ_CCY.END_DT &gt; #pdate#
-LEFT JOIN CCY_DIM CCY 					ON CCY.ALPB_CCY_CODE = T.CCY_CODE AND CCY.EFF_DT &lt;= #pdate# AND CCY.END_DT &gt; #pdate#
+										AND TERM_DIM.PRN_GRP_CODE = 'TERM_SEG_TP' AND TERM_DIM.EFF_DT &lt;= :pdate: AND TERM_DIM.END_DT &gt; :pdate:
+LEFT JOIN OU_DIM ADJ_OU 				ON ADJ_OU.CODE = T.ADJ_OU_CODE AND ADJ_OU.EFF_DT &lt;= :pdate: AND ADJ_OU.END_DT &gt; :pdate:
+LEFT JOIN OU_DIM OU						ON OU.CODE = T.OU_CODE AND OU.EFF_DT &lt;= :pdate: AND OU.END_DT &gt; :pdate:
+LEFT JOIN OU_DIM MID1_OU				ON MID1_OU.CODE = T.MIS1_OU_CODE AND MID1_OU.EFF_DT &lt;= :pdate: AND MID1_OU.END_DT &gt; :pdate:
+LEFT JOIN CCY_DIM ADJ_CCY 				ON ADJ_CCY.ALPB_CCY_CODE = T.ADJ_CCY_CODE AND ADJ_CCY.EFF_DT &lt;= :pdate: AND ADJ_CCY.END_DT &gt; :pdate:
+LEFT JOIN CCY_DIM CCY 					ON CCY.ALPB_CCY_CODE = T.CCY_CODE AND CCY.EFF_DT &lt;= :pdate: AND CCY.END_DT &gt; :pdate:
 LEFT JOIN LOB_DIM ADJ_LOB				ON ADJ_LOB.LOB_CODE = T.ADJ_LOB_CODE
 LEFT JOIN LOB_DIM LOB					ON LOB.LOB_CODE = T.LOB_CODE
 LEFT JOIN PD_DTL_GRP_DIM PD_DTL			ON PD_DTL.LINE = ADJ_LOB.LOB_CODE AND PD_DTL.MAP_SPCT = PD_DIM.PD_CODE||FNC_SVC_MINI.DTL_PD_CODE
-										AND PD_DTL.EFF_DT &lt;= #pdate# AND PD_DTL.END_DT &gt; #pdate#
+										AND PD_DTL.EFF_DT &lt;= :pdate: AND PD_DTL.END_DT &gt; :pdate:
 LEFT JOIN PD_DTL_GRP_DIM PD_DTL1			ON PD_DTL1.LINE = ADJ_LOB.LOB_CODE AND PD_DTL1.MAP_SPCT = ORIG_PD.PD_CODE
-										AND PD_DTL1.EFF_DT &lt;= #pdate# AND PD_DTL1.END_DT &gt; #pdate#
-LEFT JOIN FNC_ST_DIM ADJ_FNC_ST_DIM 	ON ADJ_FNC_ST_DIM.FNC_ST_CODE = T.ADJ_FNC_ST_CODE AND ADJ_FNC_ST_DIM.EFF_DT &lt;= #pdate# AND ADJ_FNC_ST_DIM.END_DT &gt; #pdate#
-LEFT JOIN FNC_ST_DIM CST_FNC_ST_DIM 	ON CST_FNC_ST_DIM.FNC_ST_CODE = T.CST_FNC_ST_CODE AND CST_FNC_ST_DIM.EFF_DT &lt;= #pdate# AND CST_FNC_ST_DIM.END_DT &gt; #pdate#
-LEFT JOIN FNC_ST_DIM MIS_ADJ_FNC_ST_DIM ON MIS_ADJ_FNC_ST_DIM.FNC_ST_CODE = T.MIS_ADJ_FNC_ST_CODE AND MIS_ADJ_FNC_ST_DIM.EFF_DT &lt;= #pdate# AND MIS_ADJ_FNC_ST_DIM.END_DT &gt; #pdate#
-LEFT JOIN FNC_ST_DIM FNL_FNC_ST_DIM 	ON FNL_FNC_ST_DIM.FNC_ST_CODE = T.FNL_FNC_ST_CODE AND FNL_FNC_ST_DIM.EFF_DT &lt;= #pdate# AND FNL_FNC_ST_DIM.END_DT &gt; #pdate#
-LEFT JOIN FNC_ST_DIM OVRL_CST 			ON OVRL_CST.FNC_ST_CODE = T.OVRL_CST_FNC_ST_CODE AND OVRL_CST.EFF_DT &lt;= #pdate# AND OVRL_CST.END_DT &gt; #pdate#
-LEFT JOIN FNC_ST_DIM OVRL_MIS_ADJ 		ON OVRL_MIS_ADJ.FNC_ST_CODE = T.OVRL_MIS_ADJ_FNC_ST_CODE AND OVRL_MIS_ADJ.EFF_DT &lt;= #pdate# AND OVRL_MIS_ADJ.END_DT &gt; #pdate#
-LEFT JOIN FNC_ST_DIM OVRL_FNL 			ON OVRL_FNL.FNC_ST_CODE = T.OVRL_FNL_FNC_ST_CODE AND OVRL_FNL.EFF_DT &lt;= #pdate# AND OVRL_FNL.END_DT &gt; #pdate#
-LEFT JOIN FNC_ST_DIM CIC_FNC_ST_DIM 	ON CIC_FNC_ST_DIM.FNC_ST_CODE = T.CIC_FNC_ST_CODE AND CIC_FNC_ST_DIM.EFF_DT &lt;= #pdate# AND CIC_FNC_ST_DIM.END_DT &gt; #pdate#
-LEFT JOIN GRP_DIM FNC_ST_TP_DIM 		ON FNC_ST_TP_DIM.GRP_CODE = T.FNC_ST_TP_CODE AND FNC_ST_TP_DIM.EFF_DT &lt;= #pdate# AND FNC_ST_TP_DIM.END_DT &gt; #pdate#
-LEFT JOIN CG_SEG_DIM CG_SEGMENT_DIM 	ON CG_SEGMENT_DIM.CG_SEG_ID = T.CG_SEG AND CG_SEGMENT_DIM.EFF_DT &lt;= #pdate# AND CG_SEGMENT_DIM.END_DT &gt; #pdate#
-LEFT JOIN MSEG_DIM 						ON MSEG_DIM.MSEG_ID = T.MSEG AND MSEG_DIM.EFF_DT &lt;= #pdate# AND MSEG_DIM.END_DT &gt; #pdate#
-LEFT JOIN SRO_DIM 						ON SRO_DIM.SRO_CODE = T.SRO_CODE AND SRO_DIM.EFF_DT &lt;= #pdate# AND SRO_DIM.END_DT &gt; #pdate#
-LEFT JOIN PYMTC_DIM 					ON PYMTC_DIM.PYMTC_ID = T.PYMT_CARD_ID AND PYMTC_DIM.EFF_DT &lt;= #pdate# AND PYMTC_DIM.END_DT &gt; #pdate#
-LEFT JOIN OU_DIM ORIG_OU ON ORIG_OU.CODE = T.RPRG_OU_CODE AND ORIG_OU.EFF_DT &lt;= #pdate# AND ORIG_OU.END_DT &gt; #pdate#
+										AND PD_DTL1.EFF_DT &lt;= :pdate: AND PD_DTL1.END_DT &gt; :pdate:
+LEFT JOIN FNC_ST_DIM ADJ_FNC_ST_DIM 	ON ADJ_FNC_ST_DIM.FNC_ST_CODE = T.ADJ_FNC_ST_CODE AND ADJ_FNC_ST_DIM.EFF_DT &lt;= :pdate: AND ADJ_FNC_ST_DIM.END_DT &gt; :pdate:
+LEFT JOIN FNC_ST_DIM CST_FNC_ST_DIM 	ON CST_FNC_ST_DIM.FNC_ST_CODE = T.CST_FNC_ST_CODE AND CST_FNC_ST_DIM.EFF_DT &lt;= :pdate: AND CST_FNC_ST_DIM.END_DT &gt; :pdate:
+LEFT JOIN FNC_ST_DIM MIS_ADJ_FNC_ST_DIM ON MIS_ADJ_FNC_ST_DIM.FNC_ST_CODE = T.MIS_ADJ_FNC_ST_CODE AND MIS_ADJ_FNC_ST_DIM.EFF_DT &lt;= :pdate: AND MIS_ADJ_FNC_ST_DIM.END_DT &gt; :pdate:
+LEFT JOIN FNC_ST_DIM FNL_FNC_ST_DIM 	ON FNL_FNC_ST_DIM.FNC_ST_CODE = T.FNL_FNC_ST_CODE AND FNL_FNC_ST_DIM.EFF_DT &lt;= :pdate: AND FNL_FNC_ST_DIM.END_DT &gt; :pdate:
+LEFT JOIN FNC_ST_DIM OVRL_CST 			ON OVRL_CST.FNC_ST_CODE = T.OVRL_CST_FNC_ST_CODE AND OVRL_CST.EFF_DT &lt;= :pdate: AND OVRL_CST.END_DT &gt; :pdate:
+LEFT JOIN FNC_ST_DIM OVRL_MIS_ADJ 		ON OVRL_MIS_ADJ.FNC_ST_CODE = T.OVRL_MIS_ADJ_FNC_ST_CODE AND OVRL_MIS_ADJ.EFF_DT &lt;= :pdate: AND OVRL_MIS_ADJ.END_DT &gt; :pdate:
+LEFT JOIN FNC_ST_DIM OVRL_FNL 			ON OVRL_FNL.FNC_ST_CODE = T.OVRL_FNL_FNC_ST_CODE AND OVRL_FNL.EFF_DT &lt;= :pdate: AND OVRL_FNL.END_DT &gt; :pdate:
+LEFT JOIN FNC_ST_DIM CIC_FNC_ST_DIM 	ON CIC_FNC_ST_DIM.FNC_ST_CODE = T.CIC_FNC_ST_CODE AND CIC_FNC_ST_DIM.EFF_DT &lt;= :pdate: AND CIC_FNC_ST_DIM.END_DT &gt; :pdate:
+LEFT JOIN GRP_DIM FNC_ST_TP_DIM 		ON FNC_ST_TP_DIM.GRP_CODE = T.FNC_ST_TP_CODE AND FNC_ST_TP_DIM.EFF_DT &lt;= :pdate: AND FNC_ST_TP_DIM.END_DT &gt; :pdate:
+LEFT JOIN CG_SEG_DIM CG_SEGMENT_DIM 	ON CG_SEGMENT_DIM.CG_SEG_ID = T.CG_SEG AND CG_SEGMENT_DIM.EFF_DT &lt;= :pdate: AND CG_SEGMENT_DIM.END_DT &gt; :pdate:
+LEFT JOIN MSEG_DIM 						ON MSEG_DIM.MSEG_ID = T.MSEG AND MSEG_DIM.EFF_DT &lt;= :pdate: AND MSEG_DIM.END_DT &gt; :pdate:
+LEFT JOIN SRO_DIM 						ON SRO_DIM.SRO_CODE = T.SRO_CODE AND SRO_DIM.EFF_DT &lt;= :pdate: AND SRO_DIM.END_DT &gt; :pdate:
+LEFT JOIN PYMTC_DIM 					ON PYMTC_DIM.PYMTC_ID = T.PYMT_CARD_ID AND PYMTC_DIM.EFF_DT &lt;= :pdate: AND PYMTC_DIM.END_DT &gt; :pdate:
+LEFT JOIN OU_DIM ORIG_OU ON ORIG_OU.CODE = T.RPRG_OU_CODE AND ORIG_OU.EFF_DT &lt;= :pdate: AND ORIG_OU.END_DT &gt; :pdate:
 LEFT JOIN TWT_PUB_CST_INFO ON TWT_PUB_CST_INFO.IP_ID = T.CST_ID
 LEFT JOIN CST_SEG_MINI_DIM ON
 	TWT_PUB_CST_INFO.LCS = CST_SEG_MINI_DIM.LCS
@@ -626,31 +626,31 @@
 	,LST.MSEG_DIM_ID
 	,0 CLS_BAL_FCY
 	,0 CLS_BAL_LCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'IW')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'IW')
 				THEN 0
 		ELSE LST.CLS_BAL_WTD_FCY END CLS_BAL_WTD_FCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'IW')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'IW')
 				THEN 0
 		ELSE LST.CLS_BAL_WTD_LCY END CLS_BAL_WTD_LCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN 0
 		ELSE LST.CLS_BAL_MTD_FCY END CLS_BAL_MTD_FCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN 0
 		ELSE LST.CLS_BAL_MTD_LCY END CLS_BAL_MTD_LCY
 	,0 LQD_AMT_FCY
 	,0 LQD_AMT_LCY
 	,0 DSBR_AMT_FCY
 	,0 DSBR_AMT_LCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN 0
 		ELSE LST.DSBR_AMT_MTD_LCY END DSBR_AMT_MTD_LCY
 	,0 PREPYMT_AMT_FCY
 	,0 PREPYMT_AMT_LCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN 0
 		ELSE LST.PREPYMT_AMT_MTD_FCY END PREPYMT_AMT_MTD_FCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN 0
 		ELSE LST.PREPYMT_AMT_MTD_LCY END PREPYMT_AMT_MTD_LCY
 	,LST.PY_OFF_BFR_DUE_DT_F
@@ -672,10 +672,10 @@
 	,LST.OVRL_FNL_FNC_ST_DIM_ID
 	,0 ORIG_CLS_BAL_FCY
 	,0 ORIG_CLS_BAL_LCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN 0
 		ELSE LST.ORIG_CLS_BAL_MTD_FCY END ORIG_CLS_BAL_MTD_FCY
-	,CASE WHEN TO_DATE(#pdate#, 'YYYYMMDD') = TRUNC(TO_DATE(#pdate#, 'YYYYMMDD'), 'MONTH')
+	,CASE WHEN TO_DATE(:pdate:, 'YYYYMMDD') = TRUNC(TO_DATE(:pdate:, 'YYYYMMDD'), 'MONTH')
 				THEN 0
 		ELSE LST.ORIG_CLS_BAL_MTD_LCY END ORIG_CLS_BAL_MTD_LCY
 	,LST.CMB_PD_CODE
@@ -699,7 +699,7 @@
 	,LST.CST_SEG_MINI_DIM_ID
 FROM FNC_SVC_AR_ANL_FCT_FA LST
 JOIN AC_AR_DIM AC ON AC.AC_AR_DIM_ID = LST.AC_AR_DIM_ID
-WHERE LST.CDR_DT_DIM_ID = to_number(to_char(to_date(#pdate#, 'yyyymmdd') - 1, 'yyyymmdd'))
+WHERE LST.CDR_DT_DIM_ID = to_number(to_char(to_date(:pdate:, 'yyyymmdd') - 1, 'yyyymmdd'))
 	AND NOT EXISTS (
 		SELECT 1
 		FROM TWT_FNC_SVC_AR_ANL_FCT_FA T
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DELETE FROM FNC_SVC_AR_ANL_FCT_FA where CDR_DT_DIM_ID = #pdate#;</t>
+          <t>DELETE FROM FNC_SVC_AR_ANL_FCT_FA where CDR_DT_DIM_ID = :pdate:;</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
 LEFT JOIN CCY 					ON CCY.CCY_ID = AR.DNMN_CCY_ID
 LEFT JOIN AR CARD_AR			ON CARD_AR.AR_ID = CARD.CARD_ID
 LEFT JOIN TMP_AR_X_AU AU		ON AU.AR_ID = CARD.AR_ID AND AU.AR_X_AU_TP_CODE = 'AR_X_DR_AU'
-LEFT JOIN CC_AR_SMY SMY			ON CARD.AR_ID = SMY.CC_AR_ID 	AND smy.MSR_PRD_ID = :pDate:
+LEFT JOIN CC_AR_SMY SMY			ON CARD.AR_ID = SMY.CC_AR_ID 	AND smy.MSR_PRD_ID = :pdate:
 LEFT JOIN EXT_XLS_MAP_NHOMNO_THE_TDY MAP ON SMY.NOD_PAST_DUE &lt; NVL(MAP.HIGH_VAL, SMY.NOD_PAST_DUE + 1)
 	AND SMY.NOD_PAST_DUE &gt;= NVL(MAP.LOW_VAL, SMY.NOD_PAST_DUE)
 	AND SMY.NOD_PAST_DUE &gt;= NVL(MAP.LOW_VAL, SMY.NOD_PAST_DUE)
@@ -812,7 +812,7 @@
 	,ORIG_CLS_BAL_MTD_LCY
 FROM FNC_SVC_AR_ANL_FCT_FA FCT
 LEFT JOIN AC_AR_DIM ON AC_AR_DIM.AC_AR_DIM_ID = FCT.AC_AR_DIM_ID
-WHERE FCT.CDR_DT_DIM_ID = to_number(to_char(to_date(:pDate:, 'yyyymmdd')-1, 'yyyymmdd'))
+WHERE FCT.CDR_DT_DIM_ID = to_number(to_char(to_date(:pdate:, 'yyyymmdd')-1, 'yyyymmdd'))
 AND FCT.SRO_DIM_ID = 7;</t>
         </is>
       </c>
@@ -832,7 +832,7 @@
     ,CASE WHEN T.MUD IN ('OD', 'LN') THEN 1 WHEN T.MUD = 'CARD' THEN 2 END CST_MUD
     ,MAX(COALESCE(X7.VAL, T.ADJ_FNC_ST_CODE))        CST_FNC_ST_CODE
 FROM TWT_FNC_SVC_AR_FCT_FA T
-LEFT JOIN TBL_XLS_AR_TO_SBV_FNC_ST X7  ON T.AR_UNQ_ID = X7.KEY AND X7.STATUS = 'A' AND X7.EFF_DT &lt;= #pdate# AND X7.END_DT &gt; #pdate#
+LEFT JOIN TBL_XLS_AR_TO_SBV_FNC_ST X7  ON T.AR_UNQ_ID = X7.KEY AND X7.STATUS = 'A' AND X7.EFF_DT &lt;= :pdate: AND X7.END_DT &gt; :pdate:
 GROUP BY T.CST_ID, CASE WHEN T.MUD IN ('OD', 'LN') THEN 1 WHEN T.MUD = 'CARD' THEN 2 END
 ),
 TMP_MAX_BY_CST2 as
@@ -841,7 +841,7 @@
     CST_ID
     ,MAX(COALESCE(X7.VAL, T.ADJ_FNC_ST_CODE))        CST_FNC_ST_CODE
 FROM TWT_FNC_SVC_AR_FCT_FA T
-LEFT JOIN TBL_XLS_AR_TO_SBV_FNC_ST X7  ON T.AR_UNQ_ID = X7.KEY AND X7.STATUS = 'A' AND X7.EFF_DT &lt;= #pdate# AND X7.END_DT &gt; #pdate#
+LEFT JOIN TBL_XLS_AR_TO_SBV_FNC_ST X7  ON T.AR_UNQ_ID = X7.KEY AND X7.STATUS = 'A' AND X7.EFF_DT &lt;= :pdate: AND X7.END_DT &gt; :pdate:
 GROUP BY T.CST_ID
 )
 SELECT DISTINCT 	
@@ -909,18 +909,18 @@
 	,t.INTERIM_INT
 ,T.NOD_PAST_DUE
 FROM TWT_FNC_SVC_AR_FCT_FA T
-LEFT JOIN TBL_XLS_AR_TO_OU_NEW X1 		ON T.AR_UNQ_ID = X1.KEY AND X1.STATUS = 'A' AND X1.EFF_DT &lt;= #pdate# AND X1.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_OU_OLD_TO_OU_NEW X2 	ON T.ADJ_OU_CODE = X2.KEY AND X2.STATUS = 'A' AND X2.EFF_DT &lt;= #pdate# AND X2.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_AR_TO_LINE X3			ON T.AR_UNQ_ID = X3.KEY AND X3.STATUS = 'A' AND X3.EFF_DT &lt;= #pdate# AND X3.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_OU_TO_LINE X4			ON COALESCE(X1.VAL, X2.VAL, T.ADJ_OU_CODE) = X4.KEY AND X4.STATUS = 'A' AND X4.EFF_DT &lt;= #pdate# AND X4.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_CG_SEGMNT_TO_LINE X5	ON T.CG_SEG = X5.KEY_ID AND X5.STATUS = 'A' AND X5.EFF_DT &lt;= #pdate# AND X5.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_AR_TO_CCY_NEW X6		ON T.AR_UNQ_ID = X6.KEY AND X6.STATUS = 'A' AND X6.EFF_DT &lt;= #pdate# AND X6.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_AR_TO_SBV_FNC_ST X7	ON T.AR_UNQ_ID = X7.KEY AND X7.STATUS = 'A' AND X7.EFF_DT &lt;= #pdate# AND X7.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_AR_TO_MIS_FNC_ST X8  ON T.AR_UNQ_ID = X8.KEY AND X8.STATUS = 'A' AND X8.EFF_DT &lt;= #pdate# AND X8.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_AR_TO_PD_NEW X10		ON T.AR_UNQ_ID = X10.KEY AND X10.STATUS = 'A' AND X10.EFF_DT &lt;= #pdate# AND X10.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_CST_TO_AF_CIC X9    	ON T.CST_ID = X9.KEY_ID AND X9.STATUS = 'A' AND X9.EFF_DT &lt;= #pdate# AND X9.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_MISCODE_PB X11		ON T.EMPE_NBR = X11.KEY AND X11.STATUS = 'A' AND X11.EFF_DT &lt;= #pdate# AND X11.END_DT &gt; #pdate#
-LEFT JOIN TBL_XLS_CST_PB X12			ON T.CST_ID = X12.KEY_ID AND X12.STATUS = 'A' AND X12.EFF_DT &lt;= #pdate# AND X12.END_DT &gt; #pdate#
+LEFT JOIN TBL_XLS_AR_TO_OU_NEW X1 		ON T.AR_UNQ_ID = X1.KEY AND X1.STATUS = 'A' AND X1.EFF_DT &lt;= :pdate: AND X1.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_OU_OLD_TO_OU_NEW X2 	ON T.ADJ_OU_CODE = X2.KEY AND X2.STATUS = 'A' AND X2.EFF_DT &lt;= :pdate: AND X2.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_AR_TO_LINE X3			ON T.AR_UNQ_ID = X3.KEY AND X3.STATUS = 'A' AND X3.EFF_DT &lt;= :pdate: AND X3.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_OU_TO_LINE X4			ON COALESCE(X1.VAL, X2.VAL, T.ADJ_OU_CODE) = X4.KEY AND X4.STATUS = 'A' AND X4.EFF_DT &lt;= :pdate: AND X4.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_CG_SEGMNT_TO_LINE X5	ON T.CG_SEG = X5.KEY_ID AND X5.STATUS = 'A' AND X5.EFF_DT &lt;= :pdate: AND X5.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_AR_TO_CCY_NEW X6		ON T.AR_UNQ_ID = X6.KEY AND X6.STATUS = 'A' AND X6.EFF_DT &lt;= :pdate: AND X6.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_AR_TO_SBV_FNC_ST X7	ON T.AR_UNQ_ID = X7.KEY AND X7.STATUS = 'A' AND X7.EFF_DT &lt;= :pdate: AND X7.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_AR_TO_MIS_FNC_ST X8  ON T.AR_UNQ_ID = X8.KEY AND X8.STATUS = 'A' AND X8.EFF_DT &lt;= :pdate: AND X8.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_AR_TO_PD_NEW X10		ON T.AR_UNQ_ID = X10.KEY AND X10.STATUS = 'A' AND X10.EFF_DT &lt;= :pdate: AND X10.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_CST_TO_AF_CIC X9    	ON T.CST_ID = X9.KEY_ID AND X9.STATUS = 'A' AND X9.EFF_DT &lt;= :pdate: AND X9.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_MISCODE_PB X11		ON T.EMPE_NBR = X11.KEY AND X11.STATUS = 'A' AND X11.EFF_DT &lt;= :pdate: AND X11.END_DT &gt; :pdate:
+LEFT JOIN TBL_XLS_CST_PB X12			ON T.CST_ID = X12.KEY_ID AND X12.STATUS = 'A' AND X12.EFF_DT &lt;= :pdate: AND X12.END_DT &gt; :pdate:
 LEFT JOIN TMP_MAX_BY_CST T1 			ON T1.CST_ID = T.CST_ID AND CASE WHEN T.MUD IN ('OD', 'LN') THEN 1 WHEN T.MUD = 'CARD' THEN 2 END = T1.CST_MUD
 LEFT JOIN TMP_MAX_BY_CST2 T2 			ON T2.CST_ID = T.CST_ID;</t>
         </is>
@@ -958,16 +958,16 @@
 ,TVR.INTERIM_INT
 ,CASE WHEN DLQ.PNP_PAST_DUE_DT &lt;= nvl(DLQ.INT_PAST_DUE_DT,99991231) AND PAST_DUE_F = 1
 	  AND  DLQ.PNP_PAST_DUE_DT IS NOT NULL 
-	  THEN MONTHS_BETWEEN(Trunc(to_date(#pdate#,'yyyymmdd'),'MONTH'),Trunc(to_date(DLQ.PNP_PAST_DUE_DT,'yyyymmdd'),'MONTH')) 
+	  THEN MONTHS_BETWEEN(Trunc(to_date(:pdate:,'yyyymmdd'),'MONTH'),Trunc(to_date(DLQ.PNP_PAST_DUE_DT,'yyyymmdd'),'MONTH')) 
 	  WHEN PAST_DUE_F = 1 AND DLQ.INT_PAST_DUE_DT &lt;= nvl(DLQ.PNP_PAST_DUE_DT,99991231) 
 	  AND  DLQ.INT_PAST_DUE_DT IS NOT NULL 
-	  THEN MONTHS_BETWEEN(Trunc(to_date(#pdate#,'yyyymmdd'),'MONTH'),Trunc(to_date(DLQ.INT_PAST_DUE_DT,'yyyymmdd'),'MONTH'))
+	  THEN MONTHS_BETWEEN(Trunc(to_date(:pdate:,'yyyymmdd'),'MONTH'),Trunc(to_date(DLQ.INT_PAST_DUE_DT,'yyyymmdd'),'MONTH'))
 	  ELSE 0 END DLQ_CNT
 ,decode(CHG.MUD, 'OD', ABS(CLS_VAL_BAL_FCY), CLS_VAL_BAL_FCY) ORIG_CLS_BAL_FCY
 ,decode(CHG.MUD, 'OD', ABS(CLS_VAL_BAL_LCY), CLS_VAL_BAL_LCY) ORIG_CLS_BAL_LCY
 FROM TWT_FNC_SVC_AR_ANL_FCT_FA_CHG chg
-LEFT JOIN AR_DLQ_SMY DLQ ON ac_AR_ID = DLQ.AR_ID AND DLQ.MSR_PRD_ID = :pDate:
-LEFT JOIN TWT_AR_TVR_SMY_DAILY TVR ON ac_AR_ID = TVR.AR_ID AND TVR.MSR_PRD_ID = :pDate:
+LEFT JOIN AR_DLQ_SMY DLQ ON ac_AR_ID = DLQ.AR_ID AND DLQ.MSR_PRD_ID = :pdate:
+LEFT JOIN TWT_AR_TVR_SMY_DAILY TVR ON ac_AR_ID = TVR.AR_ID AND TVR.MSR_PRD_ID = :pdate:
 LEFT JOIN (SELECT ARF.AR_ID, ARF.EFF_DT, ARF.END_DT, CD.CL_CODE
 	FROM AR_FNC_ST ARF
 	LEFT JOIN CV CD ON CD.CL_ID = ARF.AR_FNC_ST_TP_ID
@@ -1000,9 +1000,9 @@
 LEFT JOIN (
 	SELECT AVY_SHD.AR_AVY_ID
 		,SUM(nvl(AVY_SHD.SHD_AMT, 0) - nvl(AVY_SHD.ACT_AMT, 0)) DUE_AMT 	FROM AR_AVY_SHD_ITM AVY_SHD
-	WHERE AVY_SHD.EFF_DT &lt;= :pDate:
-		AND AVY_SHD.END_DT &gt; :pDate:
-		AND AVY_SHD.EXPC_END_DT &lt;= :pDate:
+	WHERE AVY_SHD.EFF_DT &lt;= :pdate:
+		AND AVY_SHD.END_DT &gt; :pdate:
+		AND AVY_SHD.EXPC_END_DT &lt;= :pdate:
 		AND AVY_SHD.SHD_AMT &gt; AVY_SHD.ACT_AMT
 	GROUP BY AVY_SHD.AR_AVY_ID
 	) AVY_SHD ON AR_AVY.AR_AVY_ID = AVY_SHD.AR_AVY_ID
@@ -1036,20 +1036,20 @@
 			'CLT_VALT'
 			,'LMT_CTB'
 			)
-	WHERE RI_VAL.EFF_DT &lt;= :pDate:
-		AND RI_VAL.END_DT &gt; :pDate:
+	WHERE RI_VAL.EFF_DT &lt;= :pdate:
+		AND RI_VAL.END_DT &gt; :pdate:
 	GROUP BY RI_VAL.RI_ID
 	) RI_VAL ON RI_VAL.RI_ID = RI.RI_ID
 LEFT JOIN RI_X_UDF_RLTNP RI_X_UDF ON RI_X_UDF.RI_ID = RI.RI_ID
-	AND RI_X_UDF.EFF_DT &lt;= :pDate:
-	AND RI_X_UDF.END_DT &gt; :pDate:
+	AND RI_X_UDF.EFF_DT &lt;= :pdate:
+	AND RI_X_UDF.END_DT &gt; :pdate:
 LEFT JOIN (
 	SELECT RI_X_CL.*
 		,CV.CL_NM
 	FROM RI_X_CL_RLTNP RI_X_CL
 	JOIN CV ON RI_X_CL.CL_ID = CV.CL_ID
-		AND RI_X_CL.EFF_DT &lt;= :pDate:
-		AND RI_X_CL.END_DT &gt; :pDate:
+		AND RI_X_CL.EFF_DT &lt;= :pdate:
+		AND RI_X_CL.END_DT &gt; :pdate:
 	WHERE RI_X_CL.RI_X_CL_RLTNP_TP_ID = '1AD160750012C416E42B551CC5CA4A5F' 	) COLL_CGY ON COLL_CGY.RI_ID = RI.RI_ID
 LEFT JOIN AR_LC_ST LC_ST ON LC_ST.AR_ID = AR_X_RI.AR_ID
 	AND LC_ST.SRC_STM_ID = '85425375A0630AA9C05A16D7D3420345' 	AND LC_ST.AR_LC_ST_SCM_ID = '6B7D2ED561F31655BADF9F232E792DE2' 	AND LC_ST.EFF_DT &lt;= AC_AR.LAST_EFF_DT
@@ -1108,16 +1108,16 @@
 FROM TWT_FNC_SVC_AR_ANL_FCT_FA_CHG AC_AR
 LEFT JOIN AR_X_LMT_TP_RLTNP AR_X_LMT ON AC_AR.AC_AR_ID = AR_X_LMT.AR_ID
 LEFT JOIN AR_TVR_SMY TVR_SMY ON AC_AR.AC_AR_ID = TVR_SMY.AR_ID
-	AND TVR_SMY.MSR_PRD_ID = :pDate:
+	AND TVR_SMY.MSR_PRD_ID = :pdate:
 LEFT JOIN (
 	SELECT AR_X_AR.SBJ_AR_ID AR_ID
 		,CR_USG_SMY.CLS_AVL_AMT TOT_AVL_LMT_AMT
 	FROM AR_X_AR_RLTNP AR_X_AR
 	LEFT JOIN AR_CR_USG_SMY CR_USG_SMY ON AR_X_AR.OBJ_AR_ID = CR_USG_SMY.AR_ID
 	WHERE AR_X_AR.SRC_STM_ID = 'A859AEF31E787D7AAA50F314F87DE330'
-		AND CR_USG_SMY.MSR_PRD_ID = :pDate:
-		AND AR_X_AR.EFF_DT &lt;= :pDate:
-		AND AR_X_AR.END_DT &gt; :pDate:
+		AND CR_USG_SMY.MSR_PRD_ID = :pdate:
+		AND AR_X_AR.EFF_DT &lt;= :pdate:
+		AND AR_X_AR.END_DT &gt; :pdate:
 		AND AR_X_AR.AR_X_AR_RLTNP_TP_ID = 'E9BCF51A07832895CE3CAFED32695B4D'
 	) C ON AC_AR.AC_AR_ID = C.AR_ID
 WHERE AC_AR.MUD = 'OD'
@@ -1141,8 +1141,8 @@
 	,nvl(AR_X_AR.LMT_AMT, 0) LMT_AMT
 FROM TWT_FNC_SVC_AR_ANL_FCT_FA_CHG AC_AR
 JOIN AR_X_AR_RLTNP AR_X_AR ON AC_AR.AC_AR_ID = AR_X_AR.SBJ_AR_ID
-	AND AR_X_AR.EFF_DT &lt;= #pdate#
-	AND AR_X_AR.END_DT &gt; #pdate#
+	AND AR_X_AR.EFF_DT &lt;= :pdate:
+	AND AR_X_AR.END_DT &gt; :pdate:
 	AND AR_X_AR.SRC_STM_ID = '0A173E8726B6D97003B5EE634C0CCA92' 	AND AR_X_AR.AR_X_AR_RLTNP_TP_ID IN ('48AD3C9EF52018E228A295F9A93E5DF4', 'F3B20F07E2D8DDE866BED28D24F7FCE4') WHERE AC_AR.MUD = 'LN'
 UNION ALL
 SELECT AC_AR.AC_AR_ID
@@ -1154,21 +1154,21 @@
 		,AR_X_RI.END_DT
 		,AR_X_RI.LMT_AMT
 	FROM AR_X_RI_RLTNP AR_X_RI
-	WHERE AR_X_RI.EFF_DT &lt;= #pdate#
-		AND AR_X_RI.END_DT &gt; #pdate#
+	WHERE AR_X_RI.EFF_DT &lt;= :pdate:
+		AND AR_X_RI.END_DT &gt; :pdate:
 		AND AR_X_RI.SRC_STM_ID = '0A173E8726B6D97003B5EE634C0CCA92'
 	) AR_X_RI ON AR_X_RI.AR_ID = AC_AR.AC_AR_ID
 WHERE AC_AR.MUD = 'LN'
-	AND AR_X_RI.EFF_DT &lt;= #pdate#
-	AND AR_X_RI.END_DT &gt; #pdate#
+	AND AR_X_RI.EFF_DT &lt;= :pdate:
+	AND AR_X_RI.END_DT &gt; :pdate:
 ) GROUP BY AC_AR_ID
 UNION ALL
 SELECT A.AC_AR_ID
 	,NVL(LMT.LMT_AMT, 0) LMT_AMT
 FROM TWT_FNC_SVC_AR_ANL_FCT_FA_CHG A
 LEFT JOIN AR_X_LMT_TP_RLTNP LMT ON A.AC_AR_ID = LMT.AR_ID
-	AND LMT.EFF_DT &lt;= #pdate#
-	AND LMT.END_DT &gt; #pdate#
+	AND LMT.EFF_DT &lt;= :pdate:
+	AND LMT.END_DT &gt; :pdate:
 	AND LMT.LMT_TP_ID = 'B00397055F38C5365C64B45D8CD5DFE3' WHERE A.MUD = 'OD';</t>
         </is>
       </c>
@@ -1189,7 +1189,7 @@
 			FROM AR_X_AR_RLTNP AR_X_AR JOIN CV ON AR_X_AR.SRC_STM_ID = CV.CL_ID 
                  AND CV.CL_SCM_CODE = 'SRC_STM' 
                  AND CL_CODE = 'FCC.CLTB_ACC_COLL_LINK_DTLS'
-                 WHERE AR_X_AR.EFF_DT &lt;= #pdate# AND AR_X_AR.END_DT &gt; #pdate#) AR_X_AR 
+                 WHERE AR_X_AR.EFF_DT &lt;= :pdate: AND AR_X_AR.END_DT &gt; :pdate:) AR_X_AR 
                  ON AC_AR.AC_AR_ID = AR_X_AR.SBJ_AR_ID  
 where AC_AR.MUD = 'LN'     
 AND AR_X_AR.EFF_DT &lt;= AC_AR.LAST_EFF_DT AND AR_X_AR.END_DT &gt; AC_AR.LAST_EFF_DT
@@ -1199,7 +1199,7 @@
 			LEFT JOIN (SELECT AR_X_RI.AR_ID, AR_X_RI.EFF_DT, AR_X_RI.END_DT, AR_X_RI.RI_AMT 
 			FROM AR_X_RI_RLTNP AR_X_RI
                  WHERE AR_X_RI.SRC_STM_ID = '0A173E8726B6D97003B5EE634C0CCA92'
-                 AND AR_X_RI.EFF_DT &lt;= #pdate# AND AR_X_RI.END_DT &gt; #pdate#) AR_X_RI 
+                 AND AR_X_RI.EFF_DT &lt;= :pdate: AND AR_X_RI.END_DT &gt; :pdate:) AR_X_RI 
                  ON AC_AR.AC_AR_ID = AR_X_RI.AR_ID  
 where AC_AR.MUD = 'LN'     
 AND AR_X_RI.EFF_DT &lt;= AC_AR.LAST_EFF_DT AND AR_X_RI.END_DT &gt; AC_AR.LAST_EFF_DT)
@@ -1219,9 +1219,9 @@
 PST_ENTR.PST_ENTR_AMT_LCY FEE_INCM_LCY
 FROM TWT_FNC_SVC_AR_ANL_FCT_FA_CHG CHG
 LEFT JOIN PST_ENTR  ON PST_ENTR.REL_AR_ID = CHG.AC_AR_ID
-AND PST_DT = #pdate#
+AND PST_DT = :pdate:
 LEFT JOIN AR_X_AU_RLTNP AR_X_AU ON CHG.AC_AR_ID = AR_X_AU.AR_ID 
-AND AR_X_AU.SRC_STM_ID = '85425375A0630AA9C05A16D7D3420345' AND AR_X_AU.EFF_DT &lt;= #pdate# AND AR_X_AU.END_DT &gt; #pdate#
+AND AR_X_AU.SRC_STM_ID = '85425375A0630AA9C05A16D7D3420345' AND AR_X_AU.EFF_DT &lt;= :pdate: AND AR_X_AU.END_DT &gt; :pdate:
 LEFT JOIN AU ON AU.AU_ID = AR_X_AU.AU_ID 
 WHERE CHG.PD_CODE IN ('C11M', 'C11S', 'M9P1', 'M9PM', 'M9PS', 'N9PS')
 AND AU.ACG_STC_ITM_ID IN (select function_hash02('GL' || '|' || 'FCC.GLTM_GLMASTER', FIELD1) 
